--- a/techReport_out/Report_tables.xlsx
+++ b/techReport_out/Report_tables.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475E24B8-464E-49B4-8248-9F58F35B0013}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C104086A-2CCA-4907-BC65-1FF9AF7A40A0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="4" r:id="rId1"/>
     <sheet name="Stock" sheetId="2" r:id="rId2"/>
-    <sheet name="SimulationParms" sheetId="3" r:id="rId3"/>
-    <sheet name="SimulationResults" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Simulation_summary" sheetId="1" r:id="rId3"/>
+    <sheet name="SimulationParms_annualTarget" sheetId="7" r:id="rId4"/>
+    <sheet name="SimulationParms_quarterTarget" sheetId="3" r:id="rId5"/>
+    <sheet name="Reference assumption" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
   <si>
     <t>AR1</t>
   </si>
@@ -335,13 +337,69 @@
   <si>
     <t>Estimation results of Markov-switching models for quarterly stock returns</t>
   </si>
+  <si>
+    <t>Stock Return</t>
+  </si>
+  <si>
+    <t>Stock SD</t>
+  </si>
+  <si>
+    <t>Bond Return</t>
+  </si>
+  <si>
+    <t>Bond SD</t>
+  </si>
+  <si>
+    <t>Correlation: stock/bond</t>
+  </si>
+  <si>
+    <t>1.9%, CBO projection</t>
+  </si>
+  <si>
+    <t>Inflation: GDP price index</t>
+  </si>
+  <si>
+    <t>Inflation: CPI-U</t>
+  </si>
+  <si>
+    <t>2.0%, CBO projection</t>
+  </si>
+  <si>
+    <t>2.4%, CBO projection</t>
+  </si>
+  <si>
+    <t>6.7% (Geo), Pew</t>
+  </si>
+  <si>
+    <t>16.4% (Geo), Pew</t>
+  </si>
+  <si>
+    <t>Stock_return</t>
+  </si>
+  <si>
+    <t>Target annual Expected GeoMean</t>
+  </si>
+  <si>
+    <t>Target SD</t>
+  </si>
+  <si>
+    <t>Target annual expected ArithMean</t>
+  </si>
+  <si>
+    <t>Target Quarterly Mean</t>
+  </si>
+  <si>
+    <t>Target Quarterly SD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -496,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -563,6 +621,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -616,6 +677,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,6 +704,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542362</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13186B6B-5ABB-4E2F-89D7-9F782C337787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="2133600"/>
+          <a:ext cx="4504762" cy="3495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2085050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B83B402-4D74-4F79-A5BA-5BB48C332014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="5810250"/>
+          <a:ext cx="7400000" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>103971</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE843C3-610D-41D5-841C-4DD1E5DE74E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="3790950"/>
+          <a:ext cx="6428571" cy="2200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27831</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>47190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4994F1BF-EFD8-4C6A-B1D2-4BFBBA7CEADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8001000"/>
+          <a:ext cx="5952381" cy="3476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8528</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF618CA-82A0-4BF4-A490-AE9279979560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="8572500"/>
+          <a:ext cx="7971428" cy="2561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -917,40 +1212,40 @@
   <sheetData>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="7"/>
       <c r="K3" s="1" t="s">
         <v>0</v>
@@ -967,10 +1262,10 @@
     </row>
     <row r="4" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1189,40 +1484,40 @@
   <sheetData>
     <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="7"/>
       <c r="L3" s="1" t="s">
         <v>0</v>
@@ -1239,7 +1534,7 @@
     </row>
     <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
@@ -1372,11 +1667,286 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA3E214-267E-438D-AAEB-24414DB0FE34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="7" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="9">
+        <v>62</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2.98063847473586E-2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2.5442282101289099E-2</v>
+      </c>
+      <c r="F5" s="28">
+        <v>-0.32058521689709202</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0.27805982513156502</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="16">
+        <v>3.09034449294909E-2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2.1362621177804301E-2</v>
+      </c>
+      <c r="F6" s="28">
+        <v>-0.68642058074856505</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0.76248592777908497</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="9">
+        <v>62</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.103610955379368</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.15671132168063601</v>
+      </c>
+      <c r="F8" s="28">
+        <v>-0.38427129777646002</v>
+      </c>
+      <c r="G8" s="28">
+        <v>2.5557936764393201E-2</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.107097152997913</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.16876749833910001</v>
+      </c>
+      <c r="F9" s="28">
+        <v>-0.120652222022161</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.49580980674382502</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="9">
+        <v>62</v>
+      </c>
+      <c r="D11" s="16">
+        <v>6.2965870509858093E-2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>9.8820924995153395E-2</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0.58119781062202902</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.221544658711429</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="16">
+        <v>6.5552886122222306E-2</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.107</v>
+      </c>
+      <c r="F12" s="28">
+        <v>4.7369488451365502E-2</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.143257225626166</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93D6C81-E59A-4231-BEB2-EF30E1C894CA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,17 +1974,431 @@
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.32</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="50">
+        <v>0.32</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="15">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="15">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="15">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="15">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="15">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="15">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="15">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="15">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="16">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="16">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="H10:H13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA3E214-267E-438D-AAEB-24414DB0FE34}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="44.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
@@ -1450,7 +2434,7 @@
       <c r="C4" s="15">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="5"/>
@@ -1460,7 +2444,7 @@
       <c r="G4" s="15">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="36" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="5"/>
@@ -1472,17 +2456,17 @@
         <v>40</v>
       </c>
       <c r="C5" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D5" s="35"/>
+        <v>0.32</v>
+      </c>
+      <c r="D5" s="36"/>
       <c r="E5" s="5"/>
       <c r="F5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H5" s="35"/>
+      <c r="G5" s="50">
+        <v>0.32</v>
+      </c>
+      <c r="H5" s="36"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
@@ -1494,7 +2478,7 @@
       <c r="C6" s="15">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="5"/>
       <c r="F6" s="14" t="s">
         <v>42</v>
@@ -1502,7 +2486,7 @@
       <c r="G6" s="15">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
@@ -1514,7 +2498,7 @@
       <c r="C7" s="15">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="5"/>
       <c r="F7" s="14" t="s">
         <v>41</v>
@@ -1522,7 +2506,7 @@
       <c r="G7" s="15">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
@@ -1534,7 +2518,7 @@
       <c r="C8" s="15">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="5"/>
       <c r="F8" s="14" t="s">
         <v>43</v>
@@ -1542,19 +2526,19 @@
       <c r="G8" s="15">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="H8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
@@ -1566,7 +2550,7 @@
       <c r="C10" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="5"/>
@@ -1576,7 +2560,7 @@
       <c r="G10" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="36" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="5"/>
@@ -1590,7 +2574,7 @@
       <c r="C11" s="15">
         <v>-1.4E-2</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="5"/>
       <c r="F11" s="14" t="s">
         <v>45</v>
@@ -1598,7 +2582,7 @@
       <c r="G11" s="15">
         <v>-1.4E-2</v>
       </c>
-      <c r="H11" s="35"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
@@ -1610,7 +2594,7 @@
       <c r="C12" s="15">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="5"/>
       <c r="F12" s="14" t="s">
         <v>46</v>
@@ -1618,7 +2602,7 @@
       <c r="G12" s="15">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H12" s="35"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
@@ -1630,7 +2614,7 @@
       <c r="C13" s="16">
         <v>0.11899999999999999</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="5"/>
       <c r="F13" s="14" t="s">
         <v>47</v>
@@ -1638,19 +2622,19 @@
       <c r="G13" s="16">
         <v>0.11899999999999999</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="24"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="24"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
@@ -1662,7 +2646,7 @@
       <c r="C15" s="16">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="5"/>
@@ -1672,7 +2656,7 @@
       <c r="G15" s="16">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="38" t="s">
         <v>54</v>
       </c>
       <c r="I15" s="5"/>
@@ -1686,7 +2670,7 @@
       <c r="C16" s="16">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="5"/>
       <c r="F16" s="14" t="s">
         <v>49</v>
@@ -1694,7 +2678,7 @@
       <c r="G16" s="16">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
@@ -1785,287 +2769,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I21"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA6B78E-BFB3-4D8E-8D1A-E172B7B343AF}">
+  <dimension ref="B1:M34"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="7" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="38" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="9">
-        <v>62</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2.98063847473586E-2</v>
-      </c>
-      <c r="E5" s="16">
-        <v>2.5442282101289099E-2</v>
-      </c>
-      <c r="F5" s="27">
-        <v>-0.32058521689709202</v>
-      </c>
-      <c r="G5" s="27">
-        <v>0.27805982513156502</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="16">
-        <v>3.09034449294909E-2</v>
-      </c>
-      <c r="E6" s="16">
-        <v>2.1362621177804301E-2</v>
-      </c>
-      <c r="F6" s="27">
-        <v>-0.68642058074856505</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0.76248592777908497</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="9">
-        <v>62</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0.103610955379368</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.15671132168063601</v>
-      </c>
-      <c r="F8" s="27">
-        <v>-0.38427129777646002</v>
-      </c>
-      <c r="G8" s="27">
-        <v>2.5557936764393201E-2</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1500</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.107097152997913</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.16876749833910001</v>
-      </c>
-      <c r="F9" s="27">
-        <v>-0.120652222022161</v>
-      </c>
-      <c r="G9" s="27">
-        <v>0.49580980674382502</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="38" t="s">
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="44">
+        <f>0.067</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J2" s="45">
+        <f>0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="K2" s="46">
+        <f>I2+J2^2/2</f>
+        <v>8.1450000000000009E-2</v>
+      </c>
+      <c r="L2" s="47">
+        <f>(1+K2)^0.25 -1</f>
+        <v>1.9768543403310135E-2</v>
+      </c>
+      <c r="M2" s="47">
+        <f>0.17/2</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="9">
-        <v>62</v>
-      </c>
-      <c r="D11" s="16">
-        <v>6.2965870509858093E-2</v>
-      </c>
-      <c r="E11" s="16">
-        <v>9.8820924995153395E-2</v>
-      </c>
-      <c r="F11" s="27">
-        <v>0.58119781062202902</v>
-      </c>
-      <c r="G11" s="27">
-        <v>0.221544658711429</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1500</v>
-      </c>
-      <c r="D12" s="16">
-        <v>6.5552886122222306E-2</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0.107</v>
-      </c>
-      <c r="F12" s="27">
-        <v>4.7369488451365502E-2</v>
-      </c>
-      <c r="G12" s="27">
-        <v>0.143257225626166</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="4"/>
+      <c r="I3" s="44">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J3" s="48">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K3" s="46">
+        <f>I3+J3^2/2</f>
+        <v>3.6840499999999998E-2</v>
+      </c>
+      <c r="L3" s="49">
+        <f>(1+K3)^0.25 -1</f>
+        <v>9.0855524149775491E-3</v>
+      </c>
+      <c r="M3" s="47">
+        <f>J3/2</f>
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>0.164^2/2</f>
+        <v>1.3448000000000002E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074ABE31-05F9-40E2-A9AD-D1992244D9BE}">
   <dimension ref="B2:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" activeCellId="6" sqref="B1:B1048576 C1:C1048576 E1:E1048576 F1:F1048576 G1:G1048576 N1:N1048576 O1:O1048576"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/techReport_out/Report_tables.xlsx
+++ b/techReport_out/Report_tables.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C104086A-2CCA-4907-BC65-1FF9AF7A40A0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="4" r:id="rId1"/>
     <sheet name="Stock" sheetId="2" r:id="rId2"/>
     <sheet name="Simulation_summary" sheetId="1" r:id="rId3"/>
-    <sheet name="SimulationParms_annualTarget" sheetId="7" r:id="rId4"/>
-    <sheet name="SimulationParms_quarterTarget" sheetId="3" r:id="rId5"/>
-    <sheet name="Reference assumption" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
+    <sheet name="SimulationParms_forward_q" sheetId="7" r:id="rId4"/>
+    <sheet name="SimulationParms_forward_y" sheetId="8" r:id="rId5"/>
+    <sheet name="SimulationParms_historical" sheetId="3" r:id="rId6"/>
+    <sheet name="Reference assumption" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
   <si>
     <t>AR1</t>
   </si>
@@ -391,15 +391,137 @@
   <si>
     <t>Target Quarterly SD</t>
   </si>
+  <si>
+    <t>Expansion period</t>
+  </si>
+  <si>
+    <t>Recession period</t>
+  </si>
+  <si>
+    <t>4.8%
+(expansion to recession)</t>
+  </si>
+  <si>
+    <t>32%
+(recession to expansion)</t>
+  </si>
+  <si>
+    <t>Expected GDP growth</t>
+  </si>
+  <si>
+    <t>Standard deviation of GDP growth</t>
+  </si>
+  <si>
+    <t>Transition probability</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Expected return</t>
+  </si>
+  <si>
+    <t>Correlation between stock return and bond return</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Bond</t>
+  </si>
+  <si>
+    <t>Expected geometric annual change/return</t>
+  </si>
+  <si>
+    <t>Assumptions on annual GDP growth and asset returns implied by assumptions on quarterly data</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Target assumptions
+ for annual data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes: 
+1. Adjustments are made to the quarterly parameters estimated with historical data to ensure the simulated results for annual data (converted from simulated quarterly data) are consistent with the target assumptions for annual data.
+2. The target annual GDP growth is obtained from the 30-year projection of potential growth GDP made by CBO (2017). The target assumptions on annual stock and bond returns are generally consistent with the capital market assumptions used in Mennis, et. al (2017).  </t>
+  </si>
+  <si>
+    <t>0.67%
+(2.7%)</t>
+  </si>
+  <si>
+    <t>-0.83%
+(-3.4%)</t>
+  </si>
+  <si>
+    <t>0.74%
+(1.48%)</t>
+  </si>
+  <si>
+    <t>2.54%
+(10.6%)</t>
+  </si>
+  <si>
+    <t>-2.05%
+(-8.5%)</t>
+  </si>
+  <si>
+    <t>6.9%
+(13.8%)</t>
+  </si>
+  <si>
+    <t>11.9%
+(23.8%)</t>
+  </si>
+  <si>
+    <t>0.9%
+(3.6%)</t>
+  </si>
+  <si>
+    <t>2%
+(4%)</t>
+  </si>
+  <si>
+    <t>GDP growth
+(real)</t>
+  </si>
+  <si>
+    <t>Stock return
+(nominal)</t>
+  </si>
+  <si>
+    <t>Bond return
+(nominal)</t>
+  </si>
+  <si>
+    <t>Target expected geometric mean of annual stock return is 6.7%
+Target standard deviation of stock return is 17%</t>
+  </si>
+  <si>
+    <t>Target expected geometric mean of annual stock return is 3.6%
+Target standard deviation of annual bond return is 4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target expected geometric mean of annual GDP growth is 1.9%.   </t>
+  </si>
+  <si>
+    <t>Assumption on quarterly data
+(Annualized rates in parentheses except for the transition probabilities)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -454,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -549,12 +671,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -621,9 +752,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -640,6 +768,88 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,6 +865,51 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -663,30 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1193,11 +1424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA94CAF-A69E-46BC-98B9-C64B20F94B09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,40 +1443,40 @@
   <sheetData>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="7"/>
       <c r="K3" s="1" t="s">
         <v>0</v>
@@ -1262,10 +1493,10 @@
     </row>
     <row r="4" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1465,11 +1696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FC9AA1-300E-4C78-B295-671A481D141B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,40 +1715,40 @@
   <sheetData>
     <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="33"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="7"/>
       <c r="L3" s="1" t="s">
         <v>0</v>
@@ -1534,7 +1765,7 @@
     </row>
     <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="32"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
@@ -1667,11 +1898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,20 +1912,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
         <v>78</v>
@@ -1711,25 +1942,25 @@
       <c r="G3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="9">
@@ -1741,18 +1972,18 @@
       <c r="E5" s="16">
         <v>2.5442282101289099E-2</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>-0.32058521689709202</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>0.27805982513156502</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="9">
@@ -1764,31 +1995,31 @@
       <c r="E6" s="16">
         <v>2.1362621177804301E-2</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>-0.68642058074856505</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <v>0.76248592777908497</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="9">
@@ -1800,18 +2031,18 @@
       <c r="E8" s="16">
         <v>0.15671132168063601</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>-0.38427129777646002</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>2.5557936764393201E-2</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="9">
@@ -1823,31 +2054,31 @@
       <c r="E9" s="16">
         <v>0.16876749833910001</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>-0.120652222022161</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>0.49580980674382502</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="9">
@@ -1859,18 +2090,18 @@
       <c r="E11" s="16">
         <v>9.8820924995153395E-2</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>0.58119781062202902</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>0.221544658711429</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="9">
@@ -1882,47 +2113,47 @@
       <c r="E12" s="16">
         <v>0.107</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>4.7369488451365502E-2</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>0.143257225626166</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" s="4"/>
@@ -1942,11 +2173,505 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93D6C81-E59A-4231-BEB2-EF30E1C894CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="80"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="54">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="55">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="41">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="55">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,431 +2699,17 @@
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="15">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="15">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.32</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="50">
-        <v>0.32</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="15">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="15">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="15">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="15">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="15">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="15">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="15">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="15">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="15">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="15">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="16">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="16">
-        <v>5.1400000000000001E-2</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="16">
-        <v>5.1400000000000001E-2</v>
-      </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="H10:H13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA3E214-267E-438D-AAEB-24414DB0FE34}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="44.5703125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
@@ -2434,7 +2745,7 @@
       <c r="C4" s="15">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="82" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="5"/>
@@ -2444,7 +2755,7 @@
       <c r="G4" s="15">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="82" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="5"/>
@@ -2458,15 +2769,15 @@
       <c r="C5" s="15">
         <v>0.32</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="5"/>
       <c r="F5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="36">
         <v>0.32</v>
       </c>
-      <c r="H5" s="36"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
@@ -2478,7 +2789,7 @@
       <c r="C6" s="15">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="5"/>
       <c r="F6" s="14" t="s">
         <v>42</v>
@@ -2486,7 +2797,7 @@
       <c r="G6" s="15">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
@@ -2498,7 +2809,7 @@
       <c r="C7" s="15">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="5"/>
       <c r="F7" s="14" t="s">
         <v>41</v>
@@ -2506,7 +2817,7 @@
       <c r="G7" s="15">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
@@ -2518,7 +2829,7 @@
       <c r="C8" s="15">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="5"/>
       <c r="F8" s="14" t="s">
         <v>43</v>
@@ -2526,19 +2837,19 @@
       <c r="G8" s="15">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="25"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="25"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
@@ -2550,7 +2861,7 @@
       <c r="C10" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="82" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="5"/>
@@ -2560,7 +2871,7 @@
       <c r="G10" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="82" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="5"/>
@@ -2574,7 +2885,7 @@
       <c r="C11" s="15">
         <v>-1.4E-2</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="5"/>
       <c r="F11" s="14" t="s">
         <v>45</v>
@@ -2582,7 +2893,7 @@
       <c r="G11" s="15">
         <v>-1.4E-2</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
@@ -2594,7 +2905,7 @@
       <c r="C12" s="15">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="5"/>
       <c r="F12" s="14" t="s">
         <v>46</v>
@@ -2602,7 +2913,7 @@
       <c r="G12" s="15">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="82"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
@@ -2614,7 +2925,7 @@
       <c r="C13" s="16">
         <v>0.11899999999999999</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="5"/>
       <c r="F13" s="14" t="s">
         <v>47</v>
@@ -2622,19 +2933,19 @@
       <c r="G13" s="16">
         <v>0.11899999999999999</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="25"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="25"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
@@ -2646,7 +2957,7 @@
       <c r="C15" s="16">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="82" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="5"/>
@@ -2656,7 +2967,7 @@
       <c r="G15" s="16">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="84" t="s">
         <v>54</v>
       </c>
       <c r="I15" s="5"/>
@@ -2670,7 +2981,7 @@
       <c r="C16" s="16">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="5"/>
       <c r="F16" s="14" t="s">
         <v>49</v>
@@ -2678,7 +2989,7 @@
       <c r="G16" s="16">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
@@ -2769,12 +3080,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA6B78E-BFB3-4D8E-8D1A-E172B7B343AF}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M34"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,23 +3127,23 @@
       <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="30">
         <f>0.067</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="31">
         <f>0.17</f>
         <v>0.17</v>
       </c>
-      <c r="K2" s="46">
+      <c r="K2" s="32">
         <f>I2+J2^2/2</f>
         <v>8.1450000000000009E-2</v>
       </c>
-      <c r="L2" s="47">
+      <c r="L2" s="33">
         <f>(1+K2)^0.25 -1</f>
         <v>1.9768543403310135E-2</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="33">
         <f>0.17/2</f>
         <v>8.5000000000000006E-2</v>
       </c>
@@ -2847,21 +3158,21 @@
       <c r="H3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="30">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J3" s="48">
+      <c r="J3" s="34">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3" s="32">
         <f>I3+J3^2/2</f>
         <v>3.6840499999999998E-2</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="35">
         <f>(1+K3)^0.25 -1</f>
         <v>9.0855524149775491E-3</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="33">
         <f>J3/2</f>
         <v>2.0500000000000001E-2</v>
       </c>
@@ -2917,8 +3228,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074ABE31-05F9-40E2-A9AD-D1992244D9BE}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
